--- a/medicine/Enfance/Benjamin_Alire_Sáenz/Benjamin_Alire_Sáenz.xlsx
+++ b/medicine/Enfance/Benjamin_Alire_Sáenz/Benjamin_Alire_Sáenz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benjamin_Alire_S%C3%A1enz</t>
+          <t>Benjamin_Alire_Sáenz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Alire Sáenz, né le 16 août 1954 à Old Picacho dans le comté de Doña Ana au Nouveau-Mexique, est un écrivain américain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin_Alire_S%C3%A1enz</t>
+          <t>Benjamin_Alire_Sáenz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Alire Sáenz est le premier écrivain latino à obtenir le PEN/Faulkner Award[1] en 2013 pour Everything Begins and Ends at the Kentucky Club.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Alire Sáenz est le premier écrivain latino à obtenir le PEN/Faulkner Award en 2013 pour Everything Begins and Ends at the Kentucky Club.
 Son recueil de nouvelles intitulé Everything Begins and Ends at the Kentucky Club et son ouvrage de littérature d'enfance et de jeunesse intitulé Aristote et Dante découvrent les secrets de l'univers (Aristotle and Dante Discover the Secrets of the Universe) remportent respectivement le prix Lambda Literary de la meilleure fiction gay et le prix Lambda Literary du meilleur ouvrage jeunesse en 2012.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamin_Alire_S%C3%A1enz</t>
+          <t>Benjamin_Alire_Sáenz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,22 +559,129 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-(en) Calendar of Dust, 1991
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Calendar of Dust, 1991
 (en) Dark and Perfect Angels, 1995
 (en) Elegies in Blue, 2002
 (en) Dreaming the End of War, 2006
-(en) The Book of What Remains, 2010
-Romans
-(en) Carry Me Like Water, 1995
+(en) The Book of What Remains, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benjamin_Alire_Sáenz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Alire_S%C3%A1enz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Carry Me Like Water, 1995
 La Maison de l'oubli, Le Rocher, coll. « Thriller », 1999 ((en) The House of Forgetting, 1997), trad. Agathe Fournier de Launay, 330 p.  (ISBN 2-268-03202-7)
 (en) In Perfect Light, 2008
-(en) Names on a Map, 2008
-Recueils de nouvelles
-(en) Flowers for the Broken, 1992
-(en) Everything Begins and Ends at the Kentucky Club, 2012
-Littérature d'enfance et de jeunesse
-(en) A Gift from Papa Diego, 1999
+(en) Names on a Map, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benjamin_Alire_Sáenz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Alire_S%C3%A1enz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Flowers for the Broken, 1992
+(en) Everything Begins and Ends at the Kentucky Club, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin_Alire_Sáenz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Alire_S%C3%A1enz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) A Gift from Papa Diego, 1999
 (en) Grandma Fina and Her Wonderful Umbrellas, 2001
 (en) Sammy and Juliana in Hollywood, 2004
 (en) A Perfect Season for Dreaming, 2008
